--- a/jiekoucase.xlsx
+++ b/jiekoucase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15870" windowHeight="7950"/>
+    <workbookView windowWidth="28080" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
   <si>
     <t>接口测试用例</t>
   </si>
@@ -30,6 +30,9 @@
     <t>模块</t>
   </si>
   <si>
+    <t>接口名</t>
+  </si>
+  <si>
     <t>接口url</t>
   </si>
   <si>
@@ -48,10 +51,10 @@
     <t>login</t>
   </si>
   <si>
+    <t>get</t>
+  </si>
+  <si>
     <t>www.baidu.com</t>
-  </si>
-  <si>
-    <t>get</t>
   </si>
   <si>
     <t>pade</t>
@@ -65,9 +68,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -94,6 +97,74 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -117,52 +188,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,14 +213,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,21 +221,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,31 +235,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -268,151 +415,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,26 +429,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -465,6 +459,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -476,6 +479,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,21 +518,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -531,154 +534,160 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
@@ -1025,40 +1034,47 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="2" max="2" width="6.875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="8.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E2" t="s">
@@ -1070,180 +1086,204 @@
       <c r="G2" t="s">
         <v>7</v>
       </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D3" t="s">
         <v>11</v>
       </c>
+      <c r="E3" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
         <v>13</v>
       </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" t="s">
+      <c r="D4" t="s">
         <v>11</v>
       </c>
+      <c r="E4" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>
       </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E5" t="s">
+      <c r="D5" t="s">
         <v>11</v>
       </c>
+      <c r="E5" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G5" t="s">
         <v>13</v>
       </c>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E6" t="s">
+      <c r="D6" t="s">
         <v>11</v>
       </c>
+      <c r="E6" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G6" t="s">
         <v>13</v>
       </c>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E7" t="s">
+      <c r="D7" t="s">
         <v>11</v>
       </c>
+      <c r="E7" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G7" t="s">
         <v>13</v>
       </c>
+      <c r="H7" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E8" t="s">
+      <c r="D8" t="s">
         <v>11</v>
       </c>
+      <c r="E8" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G8" t="s">
         <v>13</v>
       </c>
+      <c r="H8" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E9" t="s">
+      <c r="D9" t="s">
         <v>11</v>
       </c>
+      <c r="E9" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G9" t="s">
         <v>13</v>
+      </c>
+      <c r="H9" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" display="www.baidu.com"/>
-    <hyperlink ref="D4" r:id="rId1" display="www.baidu.com"/>
-    <hyperlink ref="D5" r:id="rId1" display="www.baidu.com"/>
-    <hyperlink ref="D6" r:id="rId1" display="www.baidu.com"/>
-    <hyperlink ref="D8" r:id="rId1" display="www.baidu.com"/>
-    <hyperlink ref="D7" r:id="rId1" display="www.baidu.com"/>
-    <hyperlink ref="D9" r:id="rId1" display="www.baidu.com"/>
+    <hyperlink ref="E3" r:id="rId1" display="www.baidu.com"/>
+    <hyperlink ref="E4" r:id="rId1" display="www.baidu.com"/>
+    <hyperlink ref="E5" r:id="rId1" display="www.baidu.com"/>
+    <hyperlink ref="E6" r:id="rId1" display="www.baidu.com"/>
+    <hyperlink ref="E8" r:id="rId1" display="www.baidu.com"/>
+    <hyperlink ref="E7" r:id="rId1" display="www.baidu.com"/>
+    <hyperlink ref="E9" r:id="rId1" display="www.baidu.com"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1252,7 +1292,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1269,7 +1309,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>

--- a/jiekoucase.xlsx
+++ b/jiekoucase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25920" windowHeight="7500"/>
+    <workbookView windowWidth="19770" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
   <si>
     <t>接口测试用例</t>
   </si>
@@ -24,15 +24,15 @@
     <t>编号</t>
   </si>
   <si>
+    <t>用例</t>
+  </si>
+  <si>
     <t>项目</t>
   </si>
   <si>
     <t>模块</t>
   </si>
   <si>
-    <t>接口</t>
-  </si>
-  <si>
     <t>接口url</t>
   </si>
   <si>
@@ -45,19 +45,50 @@
     <t>断言</t>
   </si>
   <si>
-    <t>百度</t>
-  </si>
-  <si>
-    <t>图灵</t>
-  </si>
-  <si>
-    <t>登录</t>
-  </si>
-  <si>
-    <t>和吐泡泡</t>
-  </si>
-  <si>
-    <t>get</t>
+    <t>ces</t>
+  </si>
+  <si>
+    <t>ming</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>http://www.tuling123.com/openapi/api</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>{ “key”:“APIKEY”, “info”:“你好”, “userid”:“123456” }</t>
+  </si>
+  <si>
+    <t>code=40007</t>
+  </si>
+  <si>
+    <t>图灵api接口</t>
+  </si>
+  <si>
+    <t>code=40001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.tuling123.com/openapi/api
+</t>
+  </si>
+  <si>
+    <t>code=40002</t>
+  </si>
+  <si>
+    <t>豆瓣api</t>
+  </si>
+  <si>
+    <t>https://api.douban.com/v2/photo/:id</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>code=1001&amp;msg=uri_not_found</t>
   </si>
 </sst>
 </file>
@@ -65,12 +96,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,6 +110,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color rgb="FF93A2A9"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -89,6 +142,103 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -102,128 +252,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -232,49 +269,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF3F4F6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -286,142 +455,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFF2F5F8"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -441,26 +493,44 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,35 +561,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,10 +583,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -543,142 +595,166 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1022,86 +1098,243 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="9" style="2"/>
+    <col min="3" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="62.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="2:6">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3">
+    <row r="3" ht="54.75" spans="1:8">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G3">
-        <v>222</v>
-      </c>
-      <c r="H3">
-        <v>2222</v>
+      <c r="G3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" ht="54.75" spans="1:8">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" ht="54.75" spans="1:8">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" ht="54" spans="1:8">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="1:8">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" ht="81" spans="1:8">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="1:8">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:F1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E7" r:id="rId1" display="http://www.tuling123.com/openapi/api"/>
+    <hyperlink ref="E8" r:id="rId2" display="http://www.tuling123.com/openapi/api&#10;" tooltip="http://www.tuling123.com/openapi/api&#10;"/>
+  </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1109,7 +1342,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1126,7 +1359,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>

--- a/jiekoucase.xlsx
+++ b/jiekoucase.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
   <si>
     <t>接口测试用例</t>
   </si>
@@ -60,35 +60,13 @@
     <t>POST</t>
   </si>
   <si>
+    <t>{ 'key':'APIKEY', “info”:“你好”, “userid”:“123456” }</t>
+  </si>
+  <si>
+    <t>code=40007</t>
+  </si>
+  <si>
     <t>{ “key”:“APIKEY”, “info”:“你好”, “userid”:“123456” }</t>
-  </si>
-  <si>
-    <t>code=40007</t>
-  </si>
-  <si>
-    <t>图灵api接口</t>
-  </si>
-  <si>
-    <t>code=40001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.tuling123.com/openapi/api
-</t>
-  </si>
-  <si>
-    <t>code=40002</t>
-  </si>
-  <si>
-    <t>豆瓣api</t>
-  </si>
-  <si>
-    <t>https://api.douban.com/v2/photo/:id</t>
-  </si>
-  <si>
-    <t>GET</t>
-  </si>
-  <si>
-    <t>code=1001&amp;msg=uri_not_found</t>
   </si>
 </sst>
 </file>
@@ -97,9 +75,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -116,16 +94,54 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -133,74 +149,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,6 +194,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -222,6 +210,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -229,32 +231,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,30 +253,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -311,6 +301,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -323,139 +373,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,44 +471,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,17 +521,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -583,10 +561,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -595,37 +573,37 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -634,98 +612,98 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -746,15 +724,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1104,13 +1073,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G1" sqref="G$1:G$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="9" style="2"/>
@@ -1128,7 +1097,7 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" ht="14.25" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1200,7 +1169,7 @@
         <v>13</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>15</v>
@@ -1226,7 +1195,7 @@
         <v>13</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>15</v>
@@ -1252,89 +1221,16 @@
         <v>13</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="7" customFormat="1" spans="1:8">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" customFormat="1" ht="81" spans="1:8">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" customFormat="1" spans="1:8">
-      <c r="A9">
-        <v>3</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:F1"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="E7" r:id="rId1" display="http://www.tuling123.com/openapi/api"/>
-    <hyperlink ref="E8" r:id="rId2" display="http://www.tuling123.com/openapi/api&#10;" tooltip="http://www.tuling123.com/openapi/api&#10;"/>
-  </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/jiekoucase.xlsx
+++ b/jiekoucase.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
   <si>
     <t>接口测试用例</t>
   </si>
@@ -60,13 +60,19 @@
     <t>POST</t>
   </si>
   <si>
-    <t>{ 'key':'APIKEY', “info”:“你好”, “userid”:“123456” }</t>
+    <t>asdfasdfadsf</t>
   </si>
   <si>
     <t>code=40007</t>
   </si>
   <si>
-    <t>{ “key”:“APIKEY”, “info”:“你好”, “userid”:“123456” }</t>
+    <t>的广东佛山高大上发个梵蒂冈</t>
+  </si>
+  <si>
+    <t>第三方割发代首法规的法规</t>
+  </si>
+  <si>
+    <t>的方式公司的分公司电饭锅</t>
   </si>
 </sst>
 </file>
@@ -74,10 +80,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -94,6 +100,52 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -101,9 +153,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -117,13 +197,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -132,6 +205,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -140,45 +221,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -186,51 +237,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -253,187 +259,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,30 +459,6 @@
         <color rgb="FFF2F5F8"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -510,22 +492,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,6 +525,35 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -561,10 +567,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -573,133 +579,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1076,7 +1082,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G$1:G$1048576"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="7"/>
@@ -1195,7 +1201,7 @@
         <v>13</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>15</v>
@@ -1221,7 +1227,7 @@
         <v>13</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>15</v>

--- a/jiekoucase.xlsx
+++ b/jiekoucase.xlsx
@@ -81,9 +81,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -100,24 +100,93 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -140,6 +209,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -147,96 +223,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -259,6 +259,78 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -271,7 +343,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -283,31 +391,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -319,127 +433,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,6 +459,30 @@
         <color rgb="FFF2F5F8"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -492,17 +516,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,35 +554,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -567,10 +567,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -579,133 +579,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1082,7 +1082,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="7"/>

--- a/jiekoucase.xlsx
+++ b/jiekoucase.xlsx
@@ -81,9 +81,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -100,6 +100,52 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -107,9 +153,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -123,13 +197,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -138,6 +205,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -146,45 +221,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -192,51 +237,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -259,187 +259,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,30 +459,6 @@
         <color rgb="FFF2F5F8"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -516,22 +492,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,6 +525,35 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -567,10 +567,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -579,133 +579,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1082,7 +1082,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="7"/>

--- a/jiekoucase.xlsx
+++ b/jiekoucase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="8370"/>
+    <workbookView windowWidth="24135" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
   <si>
     <t>接口测试用例</t>
   </si>
@@ -36,6 +36,9 @@
     <t>接口url</t>
   </si>
   <si>
+    <t>请求头</t>
+  </si>
+  <si>
     <t>请求方式</t>
   </si>
   <si>
@@ -57,10 +60,10 @@
     <t>http://www.tuling123.com/openapi/api</t>
   </si>
   <si>
+    <t>asdfasdfadsf</t>
+  </si>
+  <si>
     <t>POST</t>
-  </si>
-  <si>
-    <t>asdfasdfadsf</t>
   </si>
   <si>
     <t>code=40007</t>
@@ -100,24 +103,93 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -140,6 +212,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -147,96 +226,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -259,6 +262,78 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -271,7 +346,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -283,31 +394,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -319,127 +436,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,6 +462,30 @@
         <color rgb="FFF2F5F8"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -492,17 +519,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,35 +557,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -567,10 +570,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -579,133 +582,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1079,22 +1082,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="9" style="2"/>
-    <col min="3" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="62.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="1"/>
+    <col min="3" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="62.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6">
+    <row r="1" spans="2:7">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1102,8 +1105,9 @@
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
     </row>
-    <row r="2" ht="14.25" spans="1:8">
+    <row r="2" ht="14.25" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1128,114 +1132,129 @@
       <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" ht="54.75" spans="1:8">
+    <row r="3" ht="54.75" spans="1:9">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="G3" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="H3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="4" ht="54.75" spans="1:8">
+    <row r="4" ht="54.75" spans="1:9">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="F4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="5" ht="54.75" spans="1:8">
+    <row r="5" ht="54.75" spans="1:9">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>17</v>
+      <c r="F5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="6" ht="54" spans="1:8">
+    <row r="6" ht="54" spans="1:9">
       <c r="A6" s="1">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>18</v>
+      <c r="F6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B1:G1"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/jiekoucase.xlsx
+++ b/jiekoucase.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView windowWidth="24180" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
   <si>
     <t>接口测试用例</t>
   </si>
@@ -36,6 +36,9 @@
     <t>接口url</t>
   </si>
   <si>
+    <t>请求协议</t>
+  </si>
+  <si>
     <t>请求头</t>
   </si>
   <si>
@@ -48,15 +51,36 @@
     <t>断言</t>
   </si>
   <si>
-    <t>ces</t>
-  </si>
-  <si>
-    <t>ming</t>
+    <t>是否保存测试结果</t>
+  </si>
+  <si>
+    <t>是否依赖接口</t>
+  </si>
+  <si>
+    <t>依赖接口</t>
+  </si>
+  <si>
+    <t>依赖接口参数</t>
+  </si>
+  <si>
+    <t>是否查询数据库</t>
+  </si>
+  <si>
+    <t>数据库语句</t>
+  </si>
+  <si>
+    <t>数据库比较字段</t>
+  </si>
+  <si>
+    <t>昨夜西风凋碧树</t>
   </si>
   <si>
     <t>test</t>
   </si>
   <si>
+    <t>http://www.tuling123.com/openapi/api</t>
+  </si>
+  <si>
     <t>asdfasdfadsf</t>
   </si>
   <si>
@@ -66,69 +90,26 @@
     <t>code=40007</t>
   </si>
   <si>
-    <t>{"Accept":"text/html,application/xhtml+xml,application/xml;q=0.9,image/webp,*/*;q=0.8",
-"Accept-Encoding":"gzip, deflate, sdch, br",
-"Accept-Language":"zh-CN,zh;q=0.8"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.tuling123.com/openapi/api</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.tuling123.com/openapi/api</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "key":"apikey",
-    "info":"我想看新闻"
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>{
- "key":"apikey",
-    "info":"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>我想看新闻</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"
-}</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "key":"apikey",
-    "info":"我想看新闻"
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>的广东佛山高大上发个梵蒂冈</t>
+  </si>
+  <si>
+    <t>第三方割发代首法规的法规</t>
+  </si>
+  <si>
+    <t>的方式公司的分公司电饭锅</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,41 +118,151 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <name val="Helvetica"/>
-      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -180,12 +271,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF3F4F6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -196,22 +467,252 @@
     <border>
       <left/>
       <right/>
-      <top style="medium">
-        <color rgb="FFF2F5F8"/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -221,30 +722,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -535,41 +1070,43 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="9" style="2"/>
-    <col min="3" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="18.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="26" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="33.875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.125" style="1" customWidth="1"/>
+    <col min="3" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="14.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="1"/>
+    <col min="9" max="9" width="18.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.25" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17" customWidth="1"/>
+    <col min="12" max="12" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="2:8">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -597,163 +1134,196 @@
       <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="J2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="G3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="I3" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="5" t="s">
         <v>19</v>
       </c>
+      <c r="E4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="I4" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="5" t="s">
         <v>19</v>
       </c>
+      <c r="E5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="I5" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="H6" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="I6" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3">
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="3:3">
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="3:3">
+      <c r="C9" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B1:H1"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
-    <hyperlink ref="E5" r:id="rId3"/>
-    <hyperlink ref="E6" r:id="rId4"/>
-  </hyperlinks>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/jiekoucase.xlsx
+++ b/jiekoucase.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="28">
   <si>
     <t>接口测试用例</t>
   </si>
@@ -97,30 +97,6 @@
   </si>
   <si>
     <t>的方式公司的分公司电饭锅</t>
-  </si>
-  <si>
-    <t>dubbo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>昨夜西风凋碧树</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.tuling123.com/openapi/api</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http</t>
@@ -131,7 +107,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,14 +117,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -171,15 +139,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -189,12 +154,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -202,9 +161,8 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -506,15 +464,14 @@
   <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="9" style="2"/>
-    <col min="3" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="9" style="4"/>
+    <col min="3" max="6" width="9" style="1"/>
     <col min="7" max="7" width="14.375" style="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="1"/>
     <col min="9" max="9" width="18.625" style="1" customWidth="1"/>
@@ -524,15 +481,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -550,7 +507,7 @@
       <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -592,19 +549,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>33</v>
+        <v>19</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>21</v>
@@ -635,7 +592,7 @@
       <c r="E4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -667,8 +624,8 @@
       <c r="E5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>28</v>
+      <c r="F5" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>21</v>
@@ -699,8 +656,8 @@
       <c r="E6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>29</v>
+      <c r="F6" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>21</v>
@@ -729,9 +686,6 @@
     <mergeCell ref="B1:H1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
